--- a/Data/预测分析表.xlsx
+++ b/Data/预测分析表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60292\Documents\Python\编译原理\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369C73F-CA1E-43BA-B99B-29980E4AB140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83005182-0004-4754-B7AD-9A80B4812395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{8CB538B3-817C-417B-B9F8-5C56B60B77BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8CB538B3-817C-417B-B9F8-5C56B60B77BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log(R,E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0155474A-55A7-494A-9924-527299C2591B}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -601,8 +613,14 @@
       <c r="O1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="N3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -653,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="N5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -696,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -715,8 +739,11 @@
       <c r="N7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -742,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -761,8 +788,11 @@
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
